--- a/Apps/Develop/Sales/Invoice/index.template.xlsx
+++ b/Apps/Develop/Sales/Invoice/index.template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\A2v10.Demo\Apps\Demo\Sales\Invoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\A2v10\Apps\Develop\Sales\Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A004767-92A3-480D-88B5-3D1BAA0FD204}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,12 +422,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Apps/Develop/Sales/Invoice/index.template.xlsx
+++ b/Apps/Develop/Sales/Invoice/index.template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\A2v10\Apps\Develop\Sales\Invoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\A2v10\Apps\Develop\sales\invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A004767-92A3-480D-88B5-3D1BAA0FD204}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD57BF2C-7F6C-4B97-B7FD-F6AAECF6CB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="3120" windowWidth="25950" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Список виписаних рахунків</t>
   </si>
@@ -423,9 +423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -441,12 +443,12 @@
     <col min="9952" max="16384" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -466,7 +468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -483,6 +485,12 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="7" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Apps/Develop/Sales/Invoice/index.template.xlsx
+++ b/Apps/Develop/Sales/Invoice/index.template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\A2v10\Apps\Develop\sales\invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD57BF2C-7F6C-4B97-B7FD-F6AAECF6CB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5094D09-3383-40F0-BDC5-A7D6CB14067A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="3120" windowWidth="25950" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1395" windowWidth="25950" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Documents_">Sheet1!$4:$4</definedName>
+    <definedName name="_Documents_">Sheet1!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Список виписаних рахунків</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +494,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
